--- a/output_combinations_optimized.xlsx
+++ b/output_combinations_optimized.xlsx
@@ -29,12 +29,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,34 +499,28 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>bags</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>240000</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+      <c r="A4" s="2" t="inlineStr"/>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Total Group 1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23542</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>wings</t>
+          <t>bags</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80000</v>
+        <v>240000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -529,105 +530,93 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4567</v>
+        <v>23542</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>suspension</t>
+          <t>wings</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Group 3</t>
+          <t>Group 2</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>45</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>rice bags</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>120000</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Group 3</t>
+      <c r="A7" s="2" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Total Group 2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>123123</v>
+        <v>4567</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>suspension</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Group 4</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3457</v>
+        <v>45</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>snake</t>
+          <t>rice bags</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Group 4</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>23452</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Screens</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>80000</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Group 4</t>
+      <c r="A10" s="2" t="inlineStr"/>
+      <c r="B10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Total Group 3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>123123</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bottle</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30000</v>
+        <v>120000</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -637,87 +626,81 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>567</v>
+        <v>3457</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>boots</t>
+          <t>snake</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>80000</v>
+        <v>90000</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Group 5</t>
+          <t>Group 4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>345</v>
+        <v>23452</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Weights</t>
+          <t>Screens</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>65000</v>
+        <v>80000</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Group 5</t>
+          <t>Group 4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>watches</t>
+          <t>bottle</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Group 5</t>
+          <t>Group 4</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>234</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>mouse</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>60000</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Group 5</t>
+      <c r="A15" s="2" t="inlineStr"/>
+      <c r="B15" s="2" t="inlineStr"/>
+      <c r="C15" s="2" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Total Group 4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>24</v>
+        <v>567</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Grape</t>
+          <t>boots</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -727,29 +710,29 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2131</v>
+        <v>345</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Weights</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Group 6</t>
+          <t>Group 5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>576</v>
+        <v>74</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>hippo</t>
+          <t>watches</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -757,17 +740,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Group 6</t>
+          <t>Group 5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tea bags</t>
+          <t>mouse</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -775,17 +758,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Group 6</t>
+          <t>Group 5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2435345</v>
+        <v>24</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>spoons</t>
+          <t>Grape</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -793,7 +776,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Group 6</t>
+          <t>Group 5</t>
         </is>
       </c>
     </row>
@@ -807,93 +790,87 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>320000</v>
+        <v>15000</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Group 7</t>
+          <t>Group 5</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>456</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>yoyo</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>320000</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Group 8</t>
+      <c r="A22" s="2" t="inlineStr"/>
+      <c r="B22" s="2" t="inlineStr"/>
+      <c r="C22" s="2" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Total Group 5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4363</v>
+        <v>2131</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>rags</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>320000</v>
+        <v>60000</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Group 9</t>
+          <t>Group 6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4363</v>
+        <v>576</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>rags</t>
+          <t>hippo</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>210000</v>
+        <v>60000</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Group 10</t>
+          <t>Group 6</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>hats</t>
+          <t>tea bags</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>320000</v>
+        <v>60000</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Group 11</t>
+          <t>Group 6</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>56</v>
+        <v>2435345</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>hats</t>
+          <t>spoons</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -901,43 +878,253 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Group 12</t>
+          <t>Group 6</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
+        <v>4363</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rags</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>100000</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Group 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr"/>
+      <c r="B28" s="2" t="inlineStr"/>
+      <c r="C28" s="2" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Total Group 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4363</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rags</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Group 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr"/>
+      <c r="B30" s="2" t="inlineStr"/>
+      <c r="C30" s="2" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Total Group 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>456</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>yoyo</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>320000</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Group 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="C31" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Group 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr"/>
+      <c r="B32" s="2" t="inlineStr"/>
+      <c r="C32" s="2" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Total Group 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4363</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rags</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Group 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr"/>
+      <c r="B34" s="2" t="inlineStr"/>
+      <c r="C34" s="2" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Total Group 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4363</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rags</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>95000</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Group 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>56</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>hats</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>225000</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Group 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr"/>
+      <c r="B37" s="2" t="inlineStr"/>
+      <c r="C37" s="2" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Total Group 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>hats</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>135000</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Group 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
         <v>456</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>yoyo</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Group 14</t>
+      <c r="C39" t="n">
+        <v>185000</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Group 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr"/>
+      <c r="B40" s="2" t="inlineStr"/>
+      <c r="C40" s="2" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Total Group 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>456</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>yoyo</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>145000</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Group 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr"/>
+      <c r="B42" s="2" t="inlineStr"/>
+      <c r="C42" s="2" t="n">
+        <v>145000</v>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Total Group 12</t>
         </is>
       </c>
     </row>

--- a/output_combinations_optimized.xlsx
+++ b/output_combinations_optimized.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,161 +483,156 @@
     <row r="2"/>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>2895993</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>WP EQUINE SENIOR ACTIVE 50LB</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>64000</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>45772</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>45674</v>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>GUARANTEED SHIPPING</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Container 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2896224</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>TSC PP 12% SWEET FEED</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>240000</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>Container 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>2895342</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WP OMOLENE 100 50LB </t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Container 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="3" t="n">
+        <v>320000</v>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>Total for Container 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" s="3" t="n">
         <v>2897785</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>WPP 3-P PUR CATTLE CUBE15x6x35  (Hot Pin Perf)</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>320000</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>Container 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="3" t="n">
-        <v>320000</v>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>Total for Container 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>2892416</v>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TSC WHOLE CORN </t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>240000</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>45800</v>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>18 weeks</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>Container 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>2895341</v>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WP OMOLENE 200 50LB </t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>80000</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>Container 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
       <c r="C8" s="3" t="n">
         <v>320000</v>
       </c>
+      <c r="D8" s="4" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>45674</v>
+      </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
+          <t>Container 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="3" t="n">
+        <v>320000</v>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
           <t>Total for Container 2</t>
         </is>
       </c>
     </row>
-    <row r="9"/>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>2896224</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>TSC PP 12% SWEET FEED</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>240000</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>Container 3</t>
-        </is>
-      </c>
-    </row>
+    <row r="10"/>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>2895652</v>
+        <v>2892418</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>AntlerMax Deer 20 with Bio-LG (repl 2894119)</t>
+          <t>TSC PP CRACKED CORN 35"</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>64000</v>
+        <v>200000</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>45796</v>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>18 weeks</t>
-        </is>
+        <v>45786</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>45674</v>
@@ -650,23 +645,21 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>2895463</v>
+        <v>2895444</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">TSC DUMOR EQUISTAGES </t>
+          <t>TSC DUMOR CHICKST/GR20 50#</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>45786</v>
       </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+      <c r="E12" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>45674</v>
@@ -678,72 +671,63 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>2892140</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>WP HEIFERSMART MINERAL 50LB</t>
+        </is>
+      </c>
       <c r="C13" s="3" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>Container 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="3" t="n">
         <v>320000</v>
       </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="H14" s="3" t="inlineStr">
         <is>
           <t>Total for Container 3</t>
         </is>
       </c>
     </row>
-    <row r="14"/>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>2892416</v>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TSC WHOLE CORN </t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>240000</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>45793</v>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>17 weeks</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>Container 4</t>
-        </is>
-      </c>
-    </row>
+    <row r="15"/>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>2895993</v>
+        <v>2895985</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>WP EQUINE SENIOR ACTIVE 50LB</t>
+          <t xml:space="preserve">WP EQUINE SENIOR 50LB </t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>64000</v>
+        <v>180000</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>45772</v>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>14 weeks</t>
-        </is>
+        <v>45786</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>45674</v>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>GUARANTEED SHIPPING</t>
-        </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
@@ -753,23 +737,21 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>2895342</v>
+        <v>2895341</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WP OMOLENE 100 50LB </t>
+          <t xml:space="preserve">WP OMOLENE 200 50LB </t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>16000</v>
+        <v>80000</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>45786</v>
       </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+      <c r="E17" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>45674</v>
@@ -781,45 +763,43 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>2893990</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">STRATEGY HEALTHY EDGE </t>
+        </is>
+      </c>
       <c r="C18" s="3" t="n">
+        <v>60000</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>Container 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="3" t="n">
         <v>320000</v>
       </c>
-      <c r="H18" s="3" t="inlineStr">
+      <c r="H19" s="3" t="inlineStr">
         <is>
           <t>Total for Container 4</t>
         </is>
       </c>
     </row>
-    <row r="19"/>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>2896224</v>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>TSC PP 12% SWEET FEED</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>240000</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>45793</v>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>17 weeks</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
-        <is>
-          <t>Container 5</t>
-        </is>
-      </c>
-    </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" s="3" t="n">
         <v>2892146</v>
@@ -835,10 +815,8 @@
       <c r="D21" s="4" t="n">
         <v>45786</v>
       </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+      <c r="E21" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>45674</v>
@@ -851,23 +829,21 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>2894040</v>
+        <v>2894018</v>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>WPP PLAIN WHITE CUBE NOWGHT</t>
+          <t>Ampli Calf AS</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>16000</v>
+        <v>64000</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>45796</v>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>18 weeks</t>
-        </is>
+        <v>45786</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>45674</v>
@@ -879,917 +855,886 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>2896262</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>TSC PP RABBIT 50# 15x6x33</t>
+        </is>
+      </c>
       <c r="C23" s="3" t="n">
-        <v>320000</v>
+        <v>64000</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>45674</v>
       </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
-          <t>Total for Container 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="24"/>
+          <t>Container 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>2895469</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>DuMor Goat Sweet Feed</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>56000</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>Container 5</t>
+        </is>
+      </c>
+    </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>2892418</v>
+        <v>2894439</v>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>TSC PP CRACKED CORN 35"</t>
+          <t>WP Precon Complete Cattle Starter 15x6x35 W/UPC</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>200000</v>
+        <v>48000</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>45793</v>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>17 weeks</t>
-        </is>
+        <v>45786</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F25" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H25" s="3" t="inlineStr">
         <is>
-          <t>Container 6</t>
+          <t>Container 5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>2894161</v>
+        <v>2892132</v>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>WP STR+GR AMP.0125CR 50LBW/UPC</t>
+          <t>WP ANTLERMAX BREEDER ORNG 50LB</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
-        <v>100000</v>
+        <v>24000</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>45796</v>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>18 weeks</t>
-        </is>
+        <v>45786</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F26" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
+          <t>Container 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="3" t="n">
+        <v>320000</v>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>Total for Container 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>2894413</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HONOR SHOW CHOW LAMB 50# </t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
           <t>Container 6</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>2892140</v>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>WP HEIFERSMART MINERAL 50LB</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H27" s="3" t="inlineStr">
-        <is>
-          <t>Container 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" s="3" t="n">
-        <v>320000</v>
-      </c>
-      <c r="H28" s="3" t="inlineStr">
-        <is>
-          <t>Total for Container 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="29"/>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>2892418</v>
+        <v>2894160</v>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>TSC PP CRACKED CORN 35"</t>
+          <t>WP STR+GRO MED MP .0125 CR25LB</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>200000</v>
+        <v>32000</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>45786</v>
       </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+      <c r="E30" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>Container 7</t>
+          <t>Container 6</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>2895444</v>
+        <v>2894164</v>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>TSC DUMOR CHICKST/GR20 50#</t>
+          <t>WP STR+GRO NOMED CR 50LB W/UPC</t>
         </is>
       </c>
       <c r="C31" s="3" t="n">
-        <v>100000</v>
+        <v>32000</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>45786</v>
       </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+      <c r="E31" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F31" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H31" s="3" t="inlineStr">
         <is>
-          <t>Container 7</t>
+          <t>Container 6</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>2897778</v>
+        <v>2894403</v>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>PURINA CATTLE 15x5.5x33   -13 Plants</t>
+          <t>WP ANTLER ADVANTAGE 50LB</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>45786</v>
       </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+      <c r="E32" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F32" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t>Container 7</t>
+          <t>Container 6</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>2895985</v>
+        <v>2894396</v>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WP EQUINE SENIOR 50LB </t>
+          <t>WP ANTLER ADVANTAGE UPC 50LB</t>
         </is>
       </c>
       <c r="C33" s="3" t="n">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>45786</v>
       </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+      <c r="E33" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F33" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H33" s="3" t="inlineStr">
         <is>
-          <t>Container 7</t>
+          <t>Container 6</t>
         </is>
       </c>
     </row>
     <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>2895343</v>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WP OMOLENE 300 50LB </t>
+        </is>
+      </c>
       <c r="C34" s="3" t="n">
-        <v>320000</v>
+        <v>24000</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>45674</v>
       </c>
       <c r="H34" s="3" t="inlineStr">
         <is>
-          <t>Total for Container 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="35"/>
+          <t>Container 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>2897778</v>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>PURINA CATTLE 15x5.5x33   -13 Plants</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>45786</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
+        <is>
+          <t>Container 6</t>
+        </is>
+      </c>
+    </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>2895985</v>
+        <v>2895463</v>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WP EQUINE SENIOR 50LB </t>
+          <t xml:space="preserve">TSC DUMOR EQUISTAGES </t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>176000</v>
+        <v>16000</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>45786</v>
       </c>
-      <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+      <c r="E36" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F36" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H36" s="3" t="inlineStr">
         <is>
-          <t>Container 8</t>
+          <t>Container 6</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>2894018</v>
+        <v>2891871</v>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Ampli Calf AS</t>
+          <t>RANGELAND MINERAL</t>
         </is>
       </c>
       <c r="C37" s="3" t="n">
-        <v>64000</v>
+        <v>12000</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>45786</v>
       </c>
-      <c r="E37" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+      <c r="E37" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F37" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H37" s="3" t="inlineStr">
         <is>
-          <t>Container 8</t>
+          <t>Container 6</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>2896262</v>
+        <v>2896240</v>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>TSC PP RABBIT 50# 15x6x33</t>
+          <t>WP WELLSOLVE LOW STARCH 50LB</t>
         </is>
       </c>
       <c r="C38" s="3" t="n">
-        <v>64000</v>
+        <v>12000</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>45786</v>
       </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+      <c r="E38" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H38" s="3" t="inlineStr">
         <is>
-          <t>Container 8</t>
+          <t>Container 6</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>2891871</v>
+        <v>2894432</v>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>RANGELAND MINERAL</t>
+          <t>WP HIGH OCTANE FITTER 52 40LB</t>
         </is>
       </c>
       <c r="C39" s="3" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>45786</v>
       </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+      <c r="E39" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="F39" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H39" s="3" t="inlineStr">
         <is>
-          <t>Container 8</t>
+          <t>Container 6</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>2892419</v>
+        <v>2895477</v>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>TSC SCRATCH GRAINS(33")</t>
+          <t>DuMor Goat Pellets</t>
         </is>
       </c>
       <c r="C40" s="3" t="n">
-        <v>4000</v>
+        <v>36000</v>
       </c>
       <c r="D40" s="4" t="n">
+        <v>45793</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>Container 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>2895749</v>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WPP PUR STOCKER/GROWER 15X6X35 </t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D41" s="4" t="n">
         <v>45796</v>
       </c>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>18 weeks</t>
-        </is>
-      </c>
-      <c r="F40" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H40" s="3" t="inlineStr">
-        <is>
-          <t>Container 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" s="3" t="n">
+      <c r="E41" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>Container 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>2896224</v>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>TSC PP 12% SWEET FEED</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>45793</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>Container 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" s="3" t="n">
         <v>320000</v>
       </c>
-      <c r="H41" s="3" t="inlineStr">
-        <is>
-          <t>Total for Container 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="42"/>
-    <row r="43">
-      <c r="A43" s="3" t="n">
-        <v>2892419</v>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>TSC SCRATCH GRAINS(33")</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="n">
-        <v>156000</v>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>45796</v>
-      </c>
-      <c r="E43" s="3" t="inlineStr">
-        <is>
-          <t>18 weeks</t>
-        </is>
-      </c>
-      <c r="F43" s="4" t="n">
-        <v>45674</v>
-      </c>
       <c r="H43" s="3" t="inlineStr">
         <is>
-          <t>Container 9</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="n">
-        <v>2893990</v>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">STRATEGY HEALTHY EDGE </t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="n">
-        <v>60000</v>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
-      </c>
-      <c r="F44" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H44" s="3" t="inlineStr">
-        <is>
-          <t>Container 9</t>
-        </is>
-      </c>
-    </row>
+          <t>Total for Container 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="44"/>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>2895469</v>
+        <v>2892416</v>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>DuMor Goat Sweet Feed</t>
+          <t xml:space="preserve">TSC WHOLE CORN </t>
         </is>
       </c>
       <c r="C45" s="3" t="n">
-        <v>56000</v>
+        <v>240000</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+        <v>45793</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>17</v>
       </c>
       <c r="F45" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H45" s="3" t="inlineStr">
         <is>
-          <t>Container 9</t>
+          <t>Container 7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>2894439</v>
+        <v>2895652</v>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>WP Precon Complete Cattle Starter 15x6x35 W/UPC</t>
+          <t>AntlerMax Deer 20 with Bio-LG (repl 2894119)</t>
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>48000</v>
+        <v>64000</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E46" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+        <v>45796</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>18</v>
       </c>
       <c r="F46" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H46" s="3" t="inlineStr">
         <is>
-          <t>Container 9</t>
+          <t>Container 7</t>
         </is>
       </c>
     </row>
     <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>2894040</v>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>WPP PLAIN WHITE CUBE NOWGHT</t>
+        </is>
+      </c>
       <c r="C47" s="3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>45796</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>Container 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" s="3" t="n">
         <v>320000</v>
       </c>
-      <c r="H47" s="3" t="inlineStr">
-        <is>
-          <t>Total for Container 9</t>
-        </is>
-      </c>
-    </row>
-    <row r="48"/>
-    <row r="49">
-      <c r="A49" s="3" t="n">
-        <v>2895458</v>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DUMOR ALLFLOCKPLTRY17 </t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="n">
-        <v>52000</v>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>45796</v>
-      </c>
-      <c r="E49" s="3" t="inlineStr">
-        <is>
-          <t>18 weeks</t>
-        </is>
-      </c>
-      <c r="F49" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H49" s="3" t="inlineStr">
-        <is>
-          <t>Container 10</t>
-        </is>
-      </c>
-    </row>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>Total for Container 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="49"/>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>2895749</v>
+        <v>2896224</v>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WPP PUR STOCKER/GROWER 15X6X35 </t>
+          <t>TSC PP 12% SWEET FEED</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
-        <v>40000</v>
+        <v>238000</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>45796</v>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>18 weeks</t>
-        </is>
+        <v>45793</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>17</v>
       </c>
       <c r="F50" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H50" s="3" t="inlineStr">
         <is>
-          <t>Container 10</t>
+          <t>Container 8</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>2894413</v>
+        <v>2895458</v>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">HONOR SHOW CHOW LAMB 50# </t>
+          <t xml:space="preserve">DUMOR ALLFLOCKPLTRY17 </t>
         </is>
       </c>
       <c r="C51" s="3" t="n">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E51" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+        <v>45796</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>18</v>
       </c>
       <c r="F51" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H51" s="3" t="inlineStr">
         <is>
-          <t>Container 10</t>
+          <t>Container 8</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>2895477</v>
+        <v>2892418</v>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>DuMor Goat Pellets</t>
+          <t>TSC PP CRACKED CORN 35"</t>
         </is>
       </c>
       <c r="C52" s="3" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>45793</v>
       </c>
-      <c r="E52" s="3" t="inlineStr">
-        <is>
-          <t>17 weeks</t>
-        </is>
+      <c r="E52" s="3" t="n">
+        <v>17</v>
       </c>
       <c r="F52" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H52" s="3" t="inlineStr">
         <is>
-          <t>Container 10</t>
+          <t>Container 8</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n">
-        <v>2894164</v>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>WP STR+GRO NOMED CR 50LB W/UPC</t>
-        </is>
-      </c>
       <c r="C53" s="3" t="n">
-        <v>32000</v>
-      </c>
-      <c r="D53" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E53" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
-      </c>
-      <c r="F53" s="4" t="n">
-        <v>45674</v>
+        <v>320000</v>
       </c>
       <c r="H53" s="3" t="inlineStr">
         <is>
-          <t>Container 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="n">
-        <v>2894160</v>
-      </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>WP STR+GRO MED MP .0125 CR25LB</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="n">
-        <v>32000</v>
-      </c>
-      <c r="D54" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E54" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
-      </c>
-      <c r="F54" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H54" s="3" t="inlineStr">
-        <is>
-          <t>Container 10</t>
-        </is>
-      </c>
-    </row>
+          <t>Total for Container 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="54"/>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>2894396</v>
+        <v>2892418</v>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>WP ANTLER ADVANTAGE UPC 50LB</t>
+          <t>TSC PP CRACKED CORN 35"</t>
         </is>
       </c>
       <c r="C55" s="3" t="n">
-        <v>24000</v>
+        <v>170000</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+        <v>45793</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>17</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H55" s="3" t="inlineStr">
         <is>
-          <t>Container 10</t>
+          <t>Container 9</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>2892132</v>
+        <v>2894161</v>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>WP ANTLERMAX BREEDER ORNG 50LB</t>
+          <t>WP STR+GR AMP.0125CR 50LBW/UPC</t>
         </is>
       </c>
       <c r="C56" s="3" t="n">
-        <v>24000</v>
+        <v>100000</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E56" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+        <v>45796</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>18</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H56" s="3" t="inlineStr">
         <is>
-          <t>Container 10</t>
+          <t>Container 9</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>2895343</v>
+        <v>2892416</v>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">WP OMOLENE 300 50LB </t>
+          <t xml:space="preserve">TSC WHOLE CORN </t>
         </is>
       </c>
       <c r="C57" s="3" t="n">
-        <v>24000</v>
+        <v>50000</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
+        <v>45800</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>18</v>
       </c>
       <c r="F57" s="4" t="n">
         <v>45674</v>
       </c>
       <c r="H57" s="3" t="inlineStr">
         <is>
+          <t>Container 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" s="3" t="n">
+        <v>320000</v>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>Total for Container 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="59"/>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>2892416</v>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TSC WHOLE CORN </t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>190000</v>
+      </c>
+      <c r="D60" s="4" t="n">
+        <v>45800</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F60" s="4" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
           <t>Container 10</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="3" t="n">
-        <v>2896240</v>
-      </c>
-      <c r="B58" s="3" t="inlineStr">
-        <is>
-          <t>WP WELLSOLVE LOW STARCH 50LB</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="n">
-        <v>12000</v>
-      </c>
-      <c r="D58" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E58" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
-      </c>
-      <c r="F58" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H58" s="3" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>2892419</v>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>TSC SCRATCH GRAINS(33")</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>130000</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>45796</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F61" s="4" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H61" s="3" t="inlineStr">
         <is>
           <t>Container 10</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="3" t="n">
-        <v>2894403</v>
-      </c>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t>WP ANTLER ADVANTAGE 50LB</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D59" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
-      </c>
-      <c r="F59" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H59" s="3" t="inlineStr">
-        <is>
-          <t>Container 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" s="3" t="n">
+    <row r="62">
+      <c r="C62" s="3" t="n">
         <v>320000</v>
       </c>
-      <c r="H60" s="3" t="inlineStr">
+      <c r="H62" s="3" t="inlineStr">
         <is>
           <t>Total for Container 10</t>
         </is>
       </c>
     </row>
-    <row r="61"/>
-    <row r="62">
-      <c r="A62" s="3" t="n">
-        <v>2894403</v>
-      </c>
-      <c r="B62" s="3" t="inlineStr">
-        <is>
-          <t>WP ANTLER ADVANTAGE 50LB</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D62" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
-      </c>
-      <c r="F62" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H62" s="3" t="inlineStr">
-        <is>
-          <t>Container 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="n">
-        <v>2894432</v>
-      </c>
-      <c r="B63" s="3" t="inlineStr">
-        <is>
-          <t>WP HIGH OCTANE FITTER 52 40LB</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D63" s="4" t="n">
-        <v>45786</v>
-      </c>
-      <c r="E63" s="3" t="inlineStr">
-        <is>
-          <t>16 weeks</t>
-        </is>
-      </c>
-      <c r="F63" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H63" s="3" t="inlineStr">
-        <is>
-          <t>Container 11</t>
-        </is>
-      </c>
-    </row>
+    <row r="63"/>
     <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>2892419</v>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>TSC SCRATCH GRAINS(33")</t>
+        </is>
+      </c>
       <c r="C64" s="3" t="n">
         <v>30000</v>
       </c>
+      <c r="D64" s="4" t="n">
+        <v>45796</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F64" s="4" t="n">
+        <v>45674</v>
+      </c>
       <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>Container 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H65" s="3" t="inlineStr">
         <is>
           <t>Total for Container 11</t>
         </is>
